--- a/data/trans_camb/P27-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P27-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,8</t>
+          <t>-12,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>14,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>11,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7,56</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,68</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-7,39</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 15,87</t>
+          <t>-23,01; 26,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 14,37</t>
+          <t>-25,19; 25,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 31,04</t>
+          <t>-34,09; 11,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 25,21</t>
+          <t>-5,99; 33,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 19,29</t>
+          <t>-8,76; 31,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 13,82</t>
+          <t>-21,21; 21,26</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; 22,87</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-10,74; 22,16</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-21,58; 9,08</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,24%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>-3,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>-35,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>33,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>28,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>-4,04%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12,11%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-19,1%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,78; 65,97</t>
+          <t>-49,97; 135,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,22; 55,91</t>
+          <t>-56,17; 137,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 80,93</t>
+          <t>-74,7; 69,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 66,95</t>
+          <t>-10,97; 108,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 56,77</t>
+          <t>-18,04; 99,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 39,64</t>
+          <t>-42,26; 69,34</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-19,29; 77,04</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-24,45; 74,44</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-48,97; 29,65</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,15</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>15,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,67</t>
+          <t>34,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,1</t>
+          <t>11,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,38</t>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14,27</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18,84</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,95; 9,47</t>
+          <t>-30,41; 17,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 21,76</t>
+          <t>-14,7; 45,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 28,19</t>
+          <t>6,31; 62,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 31,98</t>
+          <t>-6,57; 30,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 13,42</t>
+          <t>-6,64; 33,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 21,87</t>
+          <t>-19,13; 19,58</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-14,79; 20,55</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,0; 33,16</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 40,25</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-24,7%</t>
+          <t>-18,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>45,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>100,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>-0,27%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>35,89%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>47,4%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,98; 33,2</t>
+          <t>-64,44; 70,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 80,26</t>
+          <t>-29,39; 216,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 79,82</t>
+          <t>12,45; 341,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 86,97</t>
+          <t>-11,74; 89,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 38,76</t>
+          <t>-11,25; 93,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 61,6</t>
+          <t>-34,99; 56,54</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-30,36; 65,66</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-11,27; 105,64</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 135,98</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>13,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>-8,82</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,34</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-6,39</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 14,08</t>
+          <t>-15,9; 20,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 26,14</t>
+          <t>-5,47; 31,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 13,14</t>
+          <t>-19,86; 16,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 14,28</t>
+          <t>-13,91; 13,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 9,23</t>
+          <t>-14,73; 12,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 15,87</t>
+          <t>-23,67; 3,98</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-11,46; 11,25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,78; 14,53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-19,1; 5,18</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,28%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>-2,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,58%</t>
+          <t>-1,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>-13,67%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-10,98%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,14; 32,91</t>
+          <t>-27,47; 57,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 66,34</t>
+          <t>-9,1; 86,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 24,97</t>
+          <t>-34,47; 44,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 26,51</t>
+          <t>-19,48; 23,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,59; 18,59</t>
+          <t>-20,57; 22,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 32,28</t>
+          <t>-34,59; 6,4</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-17,8; 21,81</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-11,77; 28,14</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-29,69; 9,53</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-8,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-11,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-6,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-4,71</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-7,49</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-3,91</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-8,36</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 12,41</t>
+          <t>-24,01; 7,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 17,13</t>
+          <t>-20,39; 8,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 7,58</t>
+          <t>-27,57; 2,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 8,64</t>
+          <t>-18,71; 6,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 6,63</t>
+          <t>-15,06; 10,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 7,52</t>
+          <t>-16,33; 8,45</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-16,96; 3,3</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-14,3; 5,51</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-18,42; 1,77</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>-14,96%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>-8,34%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,94%</t>
+          <t>-20,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,31%</t>
+          <t>-9,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,91%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,14%</t>
+          <t>-6,97%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-12,1%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-6,31%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-13,52%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 28,72</t>
+          <t>-40,14; 16,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 41,9</t>
+          <t>-33,11; 18,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 12,74</t>
+          <t>-42,8; 6,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 14,2</t>
+          <t>-26,0; 11,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 12,39</t>
+          <t>-20,56; 16,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 14,08</t>
+          <t>-22,72; 14,71</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-25,66; 5,59</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-21,31; 9,95</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-27,68; 2,53</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>-7,31</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-8,46</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,06</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-7,5</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 8,13</t>
+          <t>-11,15; 23,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,82; 9,79</t>
+          <t>-10,19; 23,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 14,6</t>
+          <t>-28,12; 10,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 8,83</t>
+          <t>-18,96; 19,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 7,63</t>
+          <t>-22,59; 16,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 5,21</t>
+          <t>-26,92; 10,7</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,02; 16,95</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-9,99; 15,48</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-19,4; 5,81</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-8,5%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-5,89%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>-12,45%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-5,9%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-2,71%</t>
+          <t>-5,7%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-5,83%</t>
+          <t>-12,82%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>7,06%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-12,14%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 14,41</t>
+          <t>-17,26; 48,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 18,13</t>
+          <t>-14,14; 49,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 24,19</t>
+          <t>-40,42; 21,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-24,58; 13,78</t>
+          <t>-24,67; 34,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 12,95</t>
+          <t>-31,07; 30,77</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 8,54</t>
+          <t>-36,2; 19,85</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-11,74; 30,36</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-14,58; 28,4</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-29,03; 10,52</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>-9,68</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>13,13</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-12,22</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-4,69</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>-27,93</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-7,43</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-19,18</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 20,74</t>
+          <t>-30,72; 14,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 27,29</t>
+          <t>-16,94; 26,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-30,83; 4,4</t>
+          <t>-30,32; 15,23</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 25,1</t>
+          <t>-23,66; 13,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 7,14</t>
+          <t>-17,0; 19,51</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,22; 23,63</t>
+          <t>-52,5; -7,34</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-21,45; 7,74</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; 17,59</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-33,99; -2,78</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>-15,85%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-18,29%</t>
+          <t>-12,12%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>-7,17%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-7,62%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>-37,79%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-10,89%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-28,11%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 44,13</t>
+          <t>-44,67; 27,6</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 58,65</t>
+          <t>-23,05; 56,04</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-43,79; 6,7</t>
+          <t>-41,13; 31,17</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 44,36</t>
+          <t>-27,9; 22,08</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 12,14</t>
+          <t>-19,78; 30,71</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,54; 42,86</t>
+          <t>-64,45; -11,32</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-28,87; 11,84</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-13,34; 29,85</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-47,12; -5,33</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>-8,69</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-4,68</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 3,71</t>
+          <t>-11,56; 6,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 9,42</t>
+          <t>-5,93; 14,72</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 8,17</t>
+          <t>-9,96; 11,2</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 11,04</t>
+          <t>-5,16; 8,68</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 4,02</t>
+          <t>-3,67; 9,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 8,33</t>
+          <t>-16,38; -1,17</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 4,79</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 9,34</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-10,7; 2,09</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-6,67%</t>
+          <t>-5,95%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>-14,33%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-1,21%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>6,32%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-8,49%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 8,31</t>
+          <t>-21,97; 15,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 21,63</t>
+          <t>-10,82; 33,27</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 14,39</t>
+          <t>-18,85; 25,5</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 19,35</t>
+          <t>-8,12; 15,33</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 7,77</t>
+          <t>-5,67; 18,03</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 15,87</t>
+          <t>-25,58; -1,79</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-12,53; 9,49</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 17,91</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-19,22; 3,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
